--- a/error/old/size/image_size.xlsx
+++ b/error/old/size/image_size.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -166,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2328,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,6 +2368,7 @@
       <c r="I1" s="2">
         <v>6</v>
       </c>
+      <c r="J1" s="13"/>
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2396,6 +2398,10 @@
       </c>
       <c r="I2">
         <v>23</v>
+      </c>
+      <c r="J2" s="13">
+        <f>SUM(C2:I2)</f>
+        <v>4096</v>
       </c>
       <c r="K2" s="3">
         <f>C2/SUM(C2:I2)</f>
@@ -2456,6 +2462,10 @@
       <c r="I3">
         <v>897</v>
       </c>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J66" si="0">SUM(C3:I3)</f>
+        <v>4096</v>
+      </c>
       <c r="K3" s="3">
         <f>D3/SUM(C3:I3)</f>
         <v>0.730712890625</v>
@@ -2464,27 +2474,35 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
+        <f>K2</f>
         <v>0.859130859375</v>
       </c>
       <c r="O3">
+        <f>K11</f>
         <v>0.98639455782312924</v>
       </c>
       <c r="P3">
+        <f>K20</f>
         <v>0.95941951088417088</v>
       </c>
       <c r="Q3">
+        <f>K29</f>
         <v>0.96523987359954033</v>
       </c>
       <c r="R3">
+        <f>K38</f>
         <v>0.97137580794090495</v>
       </c>
       <c r="S3">
+        <f>K47</f>
         <v>1</v>
       </c>
       <c r="T3">
+        <f>K56</f>
         <v>1</v>
       </c>
       <c r="U3">
+        <f>K65</f>
         <v>1</v>
       </c>
       <c r="V3" s="8"/>
@@ -2515,6 +2533,10 @@
       <c r="I4">
         <v>382</v>
       </c>
+      <c r="J4" s="13">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="K4" s="3">
         <f>E4/SUM(C4:I4)</f>
         <v>0.325439453125</v>
@@ -2523,27 +2545,35 @@
         <v>1</v>
       </c>
       <c r="N4" s="9">
+        <f t="shared" ref="N4:N9" si="1">K3</f>
         <v>0.730712890625</v>
       </c>
       <c r="O4">
+        <f t="shared" ref="O4:O9" si="2">K12</f>
         <v>0.9246661627614009</v>
       </c>
       <c r="P4">
+        <f t="shared" ref="P4:P9" si="3">K21</f>
         <v>0.91561408223595808</v>
       </c>
       <c r="Q4">
+        <f t="shared" ref="Q4:Q9" si="4">K30</f>
         <v>0.93737431772479174</v>
       </c>
       <c r="R4">
+        <f t="shared" ref="R4:R9" si="5">K39</f>
         <v>0.95506309633733455</v>
       </c>
       <c r="S4">
+        <f t="shared" ref="S4:S9" si="6">K48</f>
         <v>0.90314049586776857</v>
       </c>
       <c r="T4">
+        <f t="shared" ref="T4:T9" si="7">K57</f>
         <v>0.99893200427198292</v>
       </c>
       <c r="U4">
+        <f t="shared" ref="U4:U9" si="8">K66</f>
         <v>1</v>
       </c>
       <c r="V4" s="8"/>
@@ -2574,6 +2604,10 @@
       <c r="I5">
         <v>334</v>
       </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="K5" s="3">
         <f>F5/SUM(C5:I5)</f>
         <v>0.68115234375</v>
@@ -2582,27 +2616,35 @@
         <v>2</v>
       </c>
       <c r="N5" s="9">
+        <f t="shared" si="1"/>
         <v>0.325439453125</v>
       </c>
       <c r="O5">
+        <f t="shared" si="2"/>
         <v>0.20660115898211137</v>
       </c>
       <c r="P5">
+        <f t="shared" si="3"/>
         <v>0.27250739048642836</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="4"/>
         <v>0.52283826486641771</v>
       </c>
       <c r="R5">
+        <f t="shared" si="5"/>
         <v>0.42905509387503848</v>
       </c>
       <c r="S5">
+        <f t="shared" si="6"/>
         <v>0.57289256198347105</v>
       </c>
       <c r="T5">
+        <f t="shared" si="7"/>
         <v>0.59166963332146671</v>
       </c>
       <c r="U5">
+        <f t="shared" si="8"/>
         <v>0.54977092877967515</v>
       </c>
       <c r="V5" s="8"/>
@@ -2633,6 +2675,10 @@
       <c r="I6">
         <v>182</v>
       </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="K6" s="3">
         <f>G6/SUM(C6:I6)</f>
         <v>0.873291015625</v>
@@ -2641,27 +2687,35 @@
         <v>3</v>
       </c>
       <c r="N6" s="9">
+        <f t="shared" si="1"/>
         <v>0.68115234375</v>
       </c>
       <c r="O6">
+        <f t="shared" si="2"/>
         <v>0.82035777273872512</v>
       </c>
       <c r="P6">
+        <f t="shared" si="3"/>
         <v>0.60279494759473262</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="4"/>
         <v>0.61907497845446713</v>
       </c>
       <c r="R6">
+        <f t="shared" si="5"/>
         <v>0.70236995998768847</v>
       </c>
       <c r="S6">
+        <f t="shared" si="6"/>
         <v>0.7593388429752066</v>
       </c>
       <c r="T6">
+        <f>K59</f>
         <v>0.89960840156639377</v>
       </c>
       <c r="U6">
+        <f t="shared" si="8"/>
         <v>0.64598084131611833</v>
       </c>
       <c r="V6" s="8"/>
@@ -2692,6 +2746,10 @@
       <c r="I7">
         <v>20</v>
       </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="K7" s="3">
         <f>H7/SUM(C7:I7)</f>
         <v>0.977783203125</v>
@@ -2700,27 +2758,35 @@
         <v>4</v>
       </c>
       <c r="N7" s="9">
+        <f t="shared" si="1"/>
         <v>0.873291015625</v>
       </c>
       <c r="O7">
+        <f t="shared" si="2"/>
         <v>0.77651801461325276</v>
       </c>
       <c r="P7">
+        <f t="shared" si="3"/>
         <v>0.80274119860252624</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="4"/>
         <v>0.80178109738580872</v>
       </c>
       <c r="R7">
+        <f t="shared" si="5"/>
         <v>0.83594952293013236</v>
       </c>
       <c r="S7">
+        <f t="shared" si="6"/>
         <v>0.99570247933884293</v>
       </c>
       <c r="T7">
+        <f t="shared" si="7"/>
         <v>0.99359202563189752</v>
       </c>
       <c r="U7">
+        <f t="shared" si="8"/>
         <v>0.84798000832986253</v>
       </c>
       <c r="V7" s="8"/>
@@ -2751,6 +2817,10 @@
       <c r="I8" s="5">
         <v>2038</v>
       </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="K8" s="3">
         <f>I8/SUM(C8:I8)</f>
         <v>0.49755859375</v>
@@ -2759,57 +2829,74 @@
         <v>5</v>
       </c>
       <c r="N8" s="9">
+        <f t="shared" si="1"/>
         <v>0.977783203125</v>
       </c>
       <c r="O8">
+        <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
       <c r="P8">
+        <f t="shared" si="3"/>
         <v>0.8844396667562483</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="4"/>
         <v>0.94771617351335824</v>
       </c>
       <c r="R8">
+        <f t="shared" si="5"/>
         <v>0.95937211449676829</v>
       </c>
       <c r="S8">
+        <f t="shared" si="6"/>
         <v>0.99041322314049585</v>
       </c>
       <c r="T8">
+        <f t="shared" si="7"/>
         <v>0.96368814524741897</v>
       </c>
       <c r="U8">
+        <f t="shared" si="8"/>
         <v>0.99583506872136607</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J9" s="9"/>
       <c r="M9" s="8">
         <v>6</v>
       </c>
       <c r="N9" s="9">
+        <f>K8</f>
         <v>0.49755859375</v>
       </c>
       <c r="O9">
+        <f t="shared" si="2"/>
         <v>0.96371882086167804</v>
       </c>
       <c r="P9">
+        <f t="shared" si="3"/>
         <v>0.96640687987100238</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="4"/>
         <v>0.99281815570238441</v>
       </c>
       <c r="R9">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S9">
+        <f t="shared" si="6"/>
         <v>0.99570247933884293</v>
       </c>
       <c r="T9">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U9">
+        <f t="shared" si="8"/>
         <v>0.985006247396918</v>
       </c>
       <c r="V9" s="8"/>
@@ -2841,6 +2928,10 @@
       </c>
       <c r="I10" s="2">
         <v>6</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>2</v>
@@ -2882,6 +2973,10 @@
       <c r="I11">
         <v>5</v>
       </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K11" s="3">
         <f>C11/SUM(C11:I11)</f>
         <v>0.98639455782312924</v>
@@ -2898,15 +2993,15 @@
         <v>0.79951769067415335</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:R11" si="0">AVERAGE(P3:P9)</f>
+        <f t="shared" ref="P11:R11" si="9">AVERAGE(P3:P9)</f>
         <v>0.77198909663300952</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.82669183732096685</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.83616937079540954</v>
       </c>
       <c r="S11" s="10">
@@ -2949,6 +3044,10 @@
       <c r="I12">
         <v>298</v>
       </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K12" s="3">
         <f>D12/SUM(C12:I12)</f>
         <v>0.9246661627614009</v>
@@ -2965,23 +3064,23 @@
         <v>0.91836734693877553</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:T12" si="1">MEDIAN(P3:P9)</f>
+        <f t="shared" ref="P12:T12" si="10">MEDIAN(P3:P9)</f>
         <v>0.8844396667562483</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.93737431772479174</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.95506309633733455</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.99041322314049585</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.99359202563189752</v>
       </c>
       <c r="U12" s="10">
@@ -3016,6 +3115,10 @@
       <c r="I13">
         <v>692</v>
       </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K13" s="3">
         <f>E13/SUM(C13:I13)</f>
         <v>0.20660115898211137</v>
@@ -3032,27 +3135,27 @@
         <v>0.98639455782312924</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:T13" si="2">LARGE(P3:P9,1)</f>
+        <f t="shared" ref="P13:T13" si="11">LARGE(P3:P9,1)</f>
         <v>0.96640687987100238</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.99281815570238441</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13" si="3">LARGE(U3:U9,1)</f>
+        <f t="shared" ref="U13" si="12">LARGE(U3:U9,1)</f>
         <v>1</v>
       </c>
       <c r="V13" s="8"/>
@@ -3083,6 +3186,10 @@
       <c r="I14">
         <v>656</v>
       </c>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K14" s="3">
         <f>F14/SUM(C14:I14)</f>
         <v>0.82035777273872512</v>
@@ -3099,27 +3206,27 @@
         <v>0.20660115898211137</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:T14" si="4">SMALL(P3:P9,1)</f>
+        <f t="shared" ref="P14:T14" si="13">SMALL(P3:P9,1)</f>
         <v>0.27250739048642836</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.52283826486641771</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.42905509387503848</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.57289256198347105</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.59166963332146671</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" ref="U14" si="5">SMALL(U3:U9,1)</f>
+        <f t="shared" ref="U14" si="14">SMALL(U3:U9,1)</f>
         <v>0.54977092877967515</v>
       </c>
       <c r="V14" s="8"/>
@@ -3150,6 +3257,10 @@
       <c r="I15">
         <v>783</v>
       </c>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K15" s="3">
         <f>G15/SUM(C15:I15)</f>
         <v>0.77651801461325276</v>
@@ -3182,6 +3293,10 @@
       <c r="I16">
         <v>272</v>
       </c>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K16" s="3">
         <f>H16/SUM(C16:I16)</f>
         <v>0.91836734693877553</v>
@@ -3214,6 +3329,10 @@
       <c r="I17" s="5">
         <v>3825</v>
       </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
       <c r="K17" s="3">
         <f>I17/SUM(C17:I17)</f>
         <v>0.96371882086167804</v>
@@ -3221,6 +3340,7 @@
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J18" s="9"/>
       <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -3251,6 +3371,10 @@
       <c r="I19" s="2">
         <v>6</v>
       </c>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K19" s="4" t="s">
         <v>2</v>
       </c>
@@ -3281,6 +3405,10 @@
       </c>
       <c r="I20">
         <v>94</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
       </c>
       <c r="K20" s="3">
         <f>C20/SUM(C20:I20)</f>
@@ -3316,6 +3444,10 @@
       <c r="I21">
         <v>314</v>
       </c>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
       <c r="K21" s="3">
         <f>D21/SUM(C21:I21)</f>
         <v>0.91561408223595808</v>
@@ -3348,6 +3480,10 @@
       <c r="I22">
         <v>972</v>
       </c>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
       <c r="K22" s="3">
         <f>E22/SUM(C22:I22)</f>
         <v>0.27250739048642836</v>
@@ -3380,6 +3516,10 @@
       <c r="I23">
         <v>660</v>
       </c>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
       <c r="K23" s="3">
         <f>F23/SUM(C23:I23)</f>
         <v>0.60279494759473262</v>
@@ -3414,6 +3554,10 @@
       <c r="I24">
         <v>366</v>
       </c>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
       <c r="K24" s="3">
         <f>G24/SUM(C24:I24)</f>
         <v>0.80274119860252624</v>
@@ -3446,6 +3590,10 @@
       <c r="I25">
         <v>375</v>
       </c>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
       <c r="K25" s="3">
         <f>H25/SUM(C25:I25)</f>
         <v>0.8844396667562483</v>
@@ -3478,11 +3626,18 @@
       <c r="I26" s="5">
         <v>3596</v>
       </c>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
       <c r="K26" s="3">
         <f>I26/SUM(C26:I26)</f>
         <v>0.96640687987100238</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J27" s="9"/>
+    </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>8</v>
@@ -3511,6 +3666,10 @@
       <c r="I28" s="2">
         <v>6</v>
       </c>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K28" s="4" t="s">
         <v>2</v>
       </c>
@@ -3540,6 +3699,10 @@
       </c>
       <c r="I29">
         <v>94</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
       </c>
       <c r="K29" s="3">
         <f>C29/SUM(C29:I29)</f>
@@ -3574,6 +3737,10 @@
       <c r="I30">
         <v>218</v>
       </c>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="K30" s="3">
         <f>D30/SUM(C30:I30)</f>
         <v>0.93737431772479174</v>
@@ -3605,6 +3772,10 @@
       <c r="I31">
         <v>34</v>
       </c>
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="K31" s="3">
         <f>E31/SUM(C31:I31)</f>
         <v>0.52283826486641771</v>
@@ -3636,6 +3807,10 @@
       <c r="I32">
         <v>190</v>
       </c>
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="K32" s="3">
         <f>F32/SUM(C32:I32)</f>
         <v>0.61907497845446713</v>
@@ -3669,6 +3844,10 @@
       <c r="I33">
         <v>629</v>
       </c>
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="K33" s="3">
         <f>G33/SUM(C33:I33)</f>
         <v>0.80178109738580872</v>
@@ -3700,6 +3879,10 @@
       <c r="I34">
         <v>8</v>
       </c>
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="K34" s="3">
         <f>H34/SUM(C34:I34)</f>
         <v>0.94771617351335824</v>
@@ -3731,11 +3914,18 @@
       <c r="I35" s="5">
         <v>3456</v>
       </c>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="K35" s="3">
         <f>I35/SUM(C35:I35)</f>
         <v>0.99281815570238441</v>
       </c>
     </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+    </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>9</v>
@@ -3764,6 +3954,10 @@
       <c r="I37" s="2">
         <v>6</v>
       </c>
+      <c r="J37" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K37" s="4" t="s">
         <v>2</v>
       </c>
@@ -3793,6 +3987,10 @@
       </c>
       <c r="I38">
         <v>93</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
       </c>
       <c r="K38" s="3">
         <f>C38/SUM(C38:I38)</f>
@@ -3827,6 +4025,10 @@
       <c r="I39">
         <v>146</v>
       </c>
+      <c r="J39" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
       <c r="K39" s="3">
         <f>D39/SUM(C39:I39)</f>
         <v>0.95506309633733455</v>
@@ -3858,6 +4060,10 @@
       <c r="I40">
         <v>1708</v>
       </c>
+      <c r="J40" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
       <c r="K40" s="3">
         <f>E40/SUM(C40:I40)</f>
         <v>0.42905509387503848</v>
@@ -3889,6 +4095,10 @@
       <c r="I41">
         <v>959</v>
       </c>
+      <c r="J41" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
       <c r="K41" s="3">
         <f>F41/SUM(C41:I41)</f>
         <v>0.70236995998768847</v>
@@ -3922,6 +4132,10 @@
       <c r="I42">
         <v>525</v>
       </c>
+      <c r="J42" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
       <c r="K42" s="3">
         <f>G42/SUM(C42:I42)</f>
         <v>0.83594952293013236</v>
@@ -3953,6 +4167,10 @@
       <c r="I43">
         <v>0</v>
       </c>
+      <c r="J43" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
       <c r="K43" s="3">
         <f>H43/SUM(C43:I43)</f>
         <v>0.95937211449676829</v>
@@ -3984,11 +4202,18 @@
       <c r="I44" s="5">
         <v>3249</v>
       </c>
+      <c r="J44" s="13">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
       <c r="K44" s="3">
         <f>I44/SUM(C44:I44)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J45" s="9"/>
+    </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>10</v>
@@ -4017,6 +4242,10 @@
       <c r="I46" s="2">
         <v>6</v>
       </c>
+      <c r="J46" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K46" s="4" t="s">
         <v>2</v>
       </c>
@@ -4046,6 +4275,10 @@
       </c>
       <c r="I47">
         <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
       </c>
       <c r="K47" s="3">
         <f>C47/SUM(C47:I47)</f>
@@ -4080,6 +4313,10 @@
       <c r="I48">
         <v>293</v>
       </c>
+      <c r="J48" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
       <c r="K48" s="3">
         <f>D48/SUM(C48:I48)</f>
         <v>0.90314049586776857</v>
@@ -4111,6 +4348,10 @@
       <c r="I49">
         <v>1095</v>
       </c>
+      <c r="J49" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
       <c r="K49" s="3">
         <f>E49/SUM(C49:I49)</f>
         <v>0.57289256198347105</v>
@@ -4142,6 +4383,10 @@
       <c r="I50">
         <v>727</v>
       </c>
+      <c r="J50" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
       <c r="K50" s="3">
         <f>F50/SUM(C50:I50)</f>
         <v>0.7593388429752066</v>
@@ -4175,6 +4420,10 @@
       <c r="I51">
         <v>13</v>
       </c>
+      <c r="J51" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
       <c r="K51" s="3">
         <f>G51/SUM(C51:I51)</f>
         <v>0.99570247933884293</v>
@@ -4206,6 +4455,10 @@
       <c r="I52">
         <v>0</v>
       </c>
+      <c r="J52" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
       <c r="K52" s="3">
         <f>H52/SUM(C52:I52)</f>
         <v>0.99041322314049585</v>
@@ -4237,11 +4490,18 @@
       <c r="I53" s="5">
         <v>3012</v>
       </c>
+      <c r="J53" s="13">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
       <c r="K53" s="3">
         <f>I53/SUM(C53:I53)</f>
         <v>0.99570247933884293</v>
       </c>
     </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+    </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>13</v>
@@ -4270,6 +4530,10 @@
       <c r="I55" s="2">
         <v>6</v>
       </c>
+      <c r="J55" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K55" s="4" t="s">
         <v>2</v>
       </c>
@@ -4299,6 +4563,10 @@
       </c>
       <c r="I56">
         <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
       </c>
       <c r="K56" s="3">
         <f>C56/SUM(C56:I56)</f>
@@ -4333,6 +4601,10 @@
       <c r="I57">
         <v>3</v>
       </c>
+      <c r="J57" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="K57" s="3">
         <f>D57/SUM(C57:I57)</f>
         <v>0.99893200427198292</v>
@@ -4364,6 +4636,10 @@
       <c r="I58">
         <v>331</v>
       </c>
+      <c r="J58" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="K58" s="3">
         <f>E58/SUM(C58:I58)</f>
         <v>0.59166963332146671</v>
@@ -4395,6 +4671,10 @@
       <c r="I59">
         <v>109</v>
       </c>
+      <c r="J59" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="K59" s="3">
         <f>F59/SUM(C59:I59)</f>
         <v>0.89960840156639377</v>
@@ -4428,6 +4708,10 @@
       <c r="I60">
         <v>0</v>
       </c>
+      <c r="J60" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="K60" s="3">
         <f>G60/SUM(C60:I60)</f>
         <v>0.99359202563189752</v>
@@ -4459,6 +4743,10 @@
       <c r="I61">
         <v>8</v>
       </c>
+      <c r="J61" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="K61" s="3">
         <f>H61/SUM(C61:I61)</f>
         <v>0.96368814524741897</v>
@@ -4490,11 +4778,18 @@
       <c r="I62" s="5">
         <v>2809</v>
       </c>
+      <c r="J62" s="13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="K62" s="3">
         <f>I62/SUM(C62:I62)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+    </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>14</v>
@@ -4523,6 +4818,10 @@
       <c r="I64" s="2">
         <v>6</v>
       </c>
+      <c r="J64" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K64" s="4" t="s">
         <v>2</v>
       </c>
@@ -4552,6 +4851,10 @@
       </c>
       <c r="I65">
         <v>0</v>
+      </c>
+      <c r="J65" s="13">
+        <f t="shared" si="0"/>
+        <v>2401</v>
       </c>
       <c r="K65" s="3">
         <f>C65/SUM(C65:I65)</f>
@@ -4586,6 +4889,10 @@
       <c r="I66">
         <v>0</v>
       </c>
+      <c r="J66" s="13">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
       <c r="K66" s="3">
         <f>D66/SUM(C66:I66)</f>
         <v>1</v>
@@ -4617,6 +4924,10 @@
       <c r="I67">
         <v>0</v>
       </c>
+      <c r="J67" s="13">
+        <f t="shared" ref="J67:J71" si="15">SUM(C67:I67)</f>
+        <v>2401</v>
+      </c>
       <c r="K67" s="3">
         <f>E67/SUM(C67:I67)</f>
         <v>0.54977092877967515</v>
@@ -4648,6 +4959,10 @@
       <c r="I68">
         <v>0</v>
       </c>
+      <c r="J68" s="13">
+        <f t="shared" si="15"/>
+        <v>2401</v>
+      </c>
       <c r="K68" s="3">
         <f>F68/SUM(C68:I68)</f>
         <v>0.64598084131611833</v>
@@ -4681,6 +4996,10 @@
       <c r="I69">
         <v>0</v>
       </c>
+      <c r="J69" s="13">
+        <f t="shared" si="15"/>
+        <v>2401</v>
+      </c>
       <c r="K69" s="3">
         <f>G69/SUM(C69:I69)</f>
         <v>0.84798000832986253</v>
@@ -4712,6 +5031,10 @@
       <c r="I70">
         <v>0</v>
       </c>
+      <c r="J70" s="13">
+        <f t="shared" si="15"/>
+        <v>2401</v>
+      </c>
       <c r="K70" s="3">
         <f>H70/SUM(C70:I70)</f>
         <v>0.99583506872136607</v>
@@ -4742,6 +5065,10 @@
       </c>
       <c r="I71" s="5">
         <v>2365</v>
+      </c>
+      <c r="J71" s="13">
+        <f t="shared" si="15"/>
+        <v>2401</v>
       </c>
       <c r="K71" s="3">
         <f>I71/SUM(C71:I71)</f>
